--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
       <c r="C2">
-        <v>0.08</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="D2">
-        <v>0.07142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.07547169811320754</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="F2">
-        <v>0.072992700729927</v>
+        <v>0.2960526315789473</v>
       </c>
       <c r="G2">
-        <v>0.07172413793103448</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="H2">
-        <v>0.5141787051899411</v>
+        <v>0.7934724451578384</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="K2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9515828677839852</v>
+        <v>0.9954128440366973</v>
       </c>
       <c r="C2">
-        <v>0.9569288389513109</v>
+        <v>0.4063670411985019</v>
       </c>
       <c r="D2">
-        <v>0.9542483660130719</v>
+        <v>0.5771276595744681</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.07547169811320754</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
       <c r="C4">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
       <c r="D4">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
       <c r="E4">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5157914338919926</v>
+        <v>0.5369506080648603</v>
       </c>
       <c r="C5">
-        <v>0.5141787051899411</v>
+        <v>0.6853263777421081</v>
       </c>
       <c r="D5">
-        <v>0.5148600320631398</v>
+        <v>0.3611444749485244</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9081588103143204</v>
+        <v>0.9497297742601442</v>
       </c>
       <c r="C6">
-        <v>0.9128113879003559</v>
+        <v>0.4341637010676156</v>
       </c>
       <c r="D6">
-        <v>0.910465898573221</v>
+        <v>0.555606203455157</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>511</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
